--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_21_25.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_21_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1452833.99685869</v>
+        <v>1450581.917147482</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -662,13 +662,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -677,7 +677,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>219.3035610833819</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>108.2462644793327</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,19 +823,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -877,13 +877,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>108.5491196979336</v>
       </c>
       <c r="Y4" t="n">
-        <v>30.96411613815231</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +896,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,7 +905,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -914,7 +914,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,10 +950,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>129.471426936784</v>
+        <v>357.5738180516803</v>
       </c>
     </row>
     <row r="6">
@@ -1057,16 +1057,16 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>81.58403242496151</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -1108,16 +1108,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>139.9047048698942</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>177.2979137777596</v>
+        <v>41.41379075544675</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734097636</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1300,13 +1300,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>1.897177112447148</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>251.5023521518551</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,7 +1354,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1376,13 +1376,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1531,10 +1531,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>103.1686991936197</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>132.6315337216688</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1768,16 +1768,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>36.43062059490413</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1901,7 +1901,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>9.146142788179819</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419834106</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2059,7 +2059,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238261</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2087,7 +2087,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="H22" t="n">
-        <v>125.285163539206</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,10 +2287,10 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>28.75188085812055</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>103.1686991936197</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187861</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2716,7 +2716,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2728,10 +2728,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>0.8253826161911274</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>214.0647808588585</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2953,22 +2953,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>103.1686991936197</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3010,7 +3010,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>172.3645574474261</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3095,7 +3095,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="33">
@@ -3187,10 +3187,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046975</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3202,7 +3202,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3427,16 +3427,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>103.1686991936211</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>23.10998325717217</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,22 +3664,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,16 +3712,16 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>211.1474991249035</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>122.6028762599951</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>41.33703994143007</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1601.11348746897</v>
+        <v>1555.338782035317</v>
       </c>
       <c r="C2" t="n">
-        <v>1232.150970528558</v>
+        <v>1186.376265094905</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
         <v>821.1650657389509</v>
@@ -4325,10 +4325,10 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
@@ -4340,7 +4340,7 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4352,28 +4352,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>3325.60582160917</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>3104.087073040097</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2751.318417769983</v>
+        <v>2315.404380360518</v>
       </c>
       <c r="X2" t="n">
-        <v>2377.852659508903</v>
+        <v>1941.938622099438</v>
       </c>
       <c r="Y2" t="n">
-        <v>1987.713327533092</v>
+        <v>1941.938622099438</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G3" t="n">
-        <v>936.573581468607</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064745</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080125</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986299</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>331.5406302391191</v>
+        <v>457.9680739783734</v>
       </c>
       <c r="C4" t="n">
-        <v>331.5406302391191</v>
+        <v>457.9680739783734</v>
       </c>
       <c r="D4" t="n">
-        <v>331.5406302391191</v>
+        <v>457.9680739783734</v>
       </c>
       <c r="E4" t="n">
-        <v>331.5406302391191</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="F4" t="n">
-        <v>331.5406302391191</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G4" t="n">
-        <v>163.837793613838</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4507,31 +4507,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U4" t="n">
-        <v>1134.908724368016</v>
+        <v>1224.739181610488</v>
       </c>
       <c r="V4" t="n">
-        <v>880.2242361621296</v>
+        <v>970.0546934046014</v>
       </c>
       <c r="W4" t="n">
-        <v>590.8070661251691</v>
+        <v>970.0546934046014</v>
       </c>
       <c r="X4" t="n">
-        <v>362.8175152271517</v>
+        <v>860.4091179521432</v>
       </c>
       <c r="Y4" t="n">
-        <v>331.5406302391191</v>
+        <v>639.6165388086131</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>1530.167618932618</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1530.167618932618</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1171.901920325867</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4598,19 +4598,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>3215.315153136266</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W5" t="n">
-        <v>2862.546497866152</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X5" t="n">
-        <v>2862.546497866152</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="Y5" t="n">
-        <v>2731.767278738087</v>
+        <v>1916.76745899674</v>
       </c>
     </row>
     <row r="6">
@@ -4620,40 +4620,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
         <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
         <v>1685.951113992584</v>
@@ -4662,34 +4662,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>362.8459426266613</v>
+        <v>443.0505103572859</v>
       </c>
       <c r="C7" t="n">
-        <v>362.8459426266613</v>
+        <v>443.0505103572859</v>
       </c>
       <c r="D7" t="n">
-        <v>212.7293032143256</v>
+        <v>443.0505103572859</v>
       </c>
       <c r="E7" t="n">
-        <v>212.7293032143256</v>
+        <v>295.1374167748928</v>
       </c>
       <c r="F7" t="n">
-        <v>212.7293032143256</v>
+        <v>295.1374167748928</v>
       </c>
       <c r="G7" t="n">
         <v>212.7293032143256</v>
@@ -4756,19 +4756,19 @@
         <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1424.011591242373</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1282.693707535409</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="W7" t="n">
-        <v>993.2765374984485</v>
+        <v>845.4915543310558</v>
       </c>
       <c r="X7" t="n">
-        <v>765.2869866004312</v>
+        <v>845.4915543310558</v>
       </c>
       <c r="Y7" t="n">
-        <v>544.4944074569011</v>
+        <v>624.6989751875257</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1822.632236038045</v>
+        <v>1685.375546116517</v>
       </c>
       <c r="C8" t="n">
-        <v>1453.669719097633</v>
+        <v>1316.413029176105</v>
       </c>
       <c r="D8" t="n">
-        <v>1095.404020490883</v>
+        <v>958.1473305693546</v>
       </c>
       <c r="E8" t="n">
-        <v>709.6157678926384</v>
+        <v>572.3590779711103</v>
       </c>
       <c r="F8" t="n">
-        <v>298.6298631030308</v>
+        <v>565.4135772219068</v>
       </c>
       <c r="G8" t="n">
-        <v>287.5978169884314</v>
+        <v>150.3411270669033</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927146</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4814,40 +4814,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609172</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609172</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>3325.605821609172</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2972.837166339058</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X8" t="n">
-        <v>2599.371408077978</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="Y8" t="n">
-        <v>2209.232076102167</v>
+        <v>2071.975386180638</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811085</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999815</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387302</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332748</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601598</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
         <v>176.0213023927779</v>
@@ -4878,19 +4878,19 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859227991</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031464</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215812</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438128</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992583</v>
@@ -4914,7 +4914,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,49 +4936,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>681.6115596545848</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>512.6753767266779</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>362.5587373143421</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>214.645643731949</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218345</v>
+        <v>214.645643731949</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218345</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791191</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764917</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760409</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935979</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
         <v>1927.294548088493</v>
@@ -4987,25 +4987,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U10" t="n">
-        <v>1673.251768137125</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="V10" t="n">
-        <v>1418.567279931238</v>
+        <v>1191.821308835076</v>
       </c>
       <c r="W10" t="n">
-        <v>1129.150109894277</v>
+        <v>902.4041387981149</v>
       </c>
       <c r="X10" t="n">
-        <v>901.1605589962596</v>
+        <v>902.4041387981149</v>
       </c>
       <c r="Y10" t="n">
-        <v>680.3679798527295</v>
+        <v>681.6115596545848</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1702.07903472198</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>680.448174698413</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>530.3315352860773</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E13" t="n">
-        <v>382.4184417036842</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>198.0274703142544</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>198.0274703142544</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2312.991837396757</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>2023.916610740955</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1769.232122535068</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1479.814952498107</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1251.82540160009</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5258,13 +5258,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5355,28 +5355,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>943.510265746755</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>594.8179559048574</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>444.7013164925216</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,25 +5501,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.55866301478</v>
@@ -5528,16 +5528,16 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
         <v>4606.285157492579</v>
@@ -5586,22 +5586,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797191</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797191</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>119.2902967703784</v>
+        <v>716.6687843969299</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969303</v>
+        <v>716.6687843969299</v>
       </c>
       <c r="N18" t="n">
         <v>1344.266747951537</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400742</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121673</v>
       </c>
       <c r="D19" t="n">
-        <v>411.9631215597624</v>
+        <v>194.8007783998316</v>
       </c>
       <c r="E19" t="n">
-        <v>411.9631215597624</v>
+        <v>194.8007783998316</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998316</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998316</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5680,7 +5680,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570818</v>
@@ -5689,34 +5689,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648822</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611861</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614391</v>
+        <v>916.294644713844</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703139</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5744,7 +5744,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192616</v>
@@ -5762,28 +5762,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,19 +5823,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="M21" t="n">
         <v>691.1951506745238</v>
@@ -5844,13 +5844,13 @@
         <v>1318.793114229131</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468418</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>916.3099000622266</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>747.3737171343197</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>597.2570777219839</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>449.3439841395908</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F22" t="n">
-        <v>302.4540366416804</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="G22" t="n">
-        <v>302.4540366416804</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5935,25 +5935,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1546.740494934014</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5984,16 +5984,16 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
@@ -6002,13 +6002,13 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.793114229131</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>1870.702844468418</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6124,22 +6124,22 @@
         <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6203,70 +6203,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.793114229131</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468418</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>653.7474797708871</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429802</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6406,28 +6406,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.129363765926</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2263.274529420831</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U28" t="n">
-        <v>1828.279732885522</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V28" t="n">
-        <v>1573.595244679635</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W28" t="n">
-        <v>1284.178074642674</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X28" t="n">
-        <v>1056.188523744657</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y28" t="n">
-        <v>835.3959446011269</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="29">
@@ -6449,22 +6449,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,37 +6473,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>214.9229991561132</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>214.9229991561132</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232836</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782958</v>
@@ -6643,28 +6643,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>2157.887856924459</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1903.203368718572</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6692,16 +6692,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,10 +6710,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,28 +6774,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6911,40 +6911,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355938</v>
@@ -6959,28 +6959,28 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876693</v>
+        <v>513.853600740073</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121661</v>
       </c>
       <c r="D37" t="n">
-        <v>411.9631215597624</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="E37" t="n">
-        <v>264.0500279773693</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F37" t="n">
-        <v>117.1600804794589</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782958</v>
@@ -7099,46 +7099,46 @@
         <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797761</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910811</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138429</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703128</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7160,61 +7160,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797191</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797191</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>352.5519571452613</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718132</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782958</v>
@@ -7360,22 +7360,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>2197.062545487568</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1942.378057281681</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7406,10 +7406,10 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7430,7 +7430,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7488,28 +7488,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7634,31 +7634,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O45" t="n">
         <v>1859.536823237711</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>695.5020655703114</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>526.5658826424045</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429802</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>4.308775558570233e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23419,10 +23419,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>37.12601365260544</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>84.77391660561949</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23656,16 +23656,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>110.003342051665</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>136.2749052347514</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>40.3204386478828</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>63.36835372228707</v>
       </c>
       <c r="H22" t="n">
-        <v>15.00954930701791</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,10 +24175,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>43.26526345294944</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24455,7 +24455,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>65.54986409392923</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>72.11969353038563</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>45.44677382459263</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>114.1584408891649</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25075,10 +25075,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>65.5498640939318</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856552</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25315,16 +25315,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>45.4467738245913</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>142.4141550350967</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>43.26526345294945</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,16 +25600,16 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>75.37549921168753</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25783,25 +25783,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>41.54258064659096</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -26020,28 +26020,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>107.2784330767823</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>920848.7479165157</v>
+        <v>920848.7479165156</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>920848.7479165157</v>
+        <v>920848.7479165155</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>920848.7479165158</v>
+        <v>920848.7479165156</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>920848.7479165157</v>
+        <v>920848.7479165155</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>920848.7479165158</v>
+        <v>920848.7479165156</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>920848.7479165158</v>
+        <v>920848.7479165155</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>920848.7479165158</v>
+        <v>920848.7479165156</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651771</v>
       </c>
       <c r="C2" t="n">
         <v>513151.106165177</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.106165177</v>
       </c>
       <c r="E2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="F2" t="n">
+        <v>504466.6248062535</v>
+      </c>
+      <c r="G2" t="n">
+        <v>504466.6248062539</v>
+      </c>
+      <c r="H2" t="n">
+        <v>504466.6248062538</v>
+      </c>
+      <c r="I2" t="n">
         <v>504466.6248062537</v>
       </c>
-      <c r="F2" t="n">
-        <v>504466.6248062539</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="J2" t="n">
+        <v>504466.624806254</v>
+      </c>
+      <c r="K2" t="n">
+        <v>504466.6248062537</v>
+      </c>
+      <c r="L2" t="n">
         <v>504466.6248062538</v>
       </c>
-      <c r="H2" t="n">
+      <c r="M2" t="n">
+        <v>504466.6248062538</v>
+      </c>
+      <c r="N2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="O2" t="n">
+        <v>504466.6248062538</v>
+      </c>
+      <c r="P2" t="n">
         <v>504466.6248062537</v>
-      </c>
-      <c r="I2" t="n">
-        <v>504466.6248062538</v>
-      </c>
-      <c r="J2" t="n">
-        <v>504466.6248062538</v>
-      </c>
-      <c r="K2" t="n">
-        <v>504466.6248062539</v>
-      </c>
-      <c r="L2" t="n">
-        <v>504466.6248062536</v>
-      </c>
-      <c r="M2" t="n">
-        <v>504466.6248062536</v>
-      </c>
-      <c r="N2" t="n">
-        <v>504466.6248062537</v>
-      </c>
-      <c r="O2" t="n">
-        <v>504466.6248062536</v>
-      </c>
-      <c r="P2" t="n">
-        <v>504466.6248062538</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>3.894519977620803e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073546</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.014195044670487e-10</v>
+        <v>3.535601535986644e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,16 +26396,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551167</v>
+        <v>85055.02793551193</v>
       </c>
       <c r="N3" t="n">
-        <v>1.11379904410569e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>4.384401108836753e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,34 +26415,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92793.84288319404</v>
+        <v>92793.84288319407</v>
       </c>
       <c r="C4" t="n">
         <v>92793.84288319404</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.84288319394</v>
+        <v>92793.84288319407</v>
       </c>
       <c r="E4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="F4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="G4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="H4" t="n">
         <v>13606.80811184275</v>
       </c>
       <c r="I4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="J4" t="n">
         <v>13606.80811184275</v>
       </c>
       <c r="K4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="L4" t="n">
         <v>13606.80811184275</v>
@@ -26451,13 +26451,13 @@
         <v>13606.80811184275</v>
       </c>
       <c r="N4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="O4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="P4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
     </row>
     <row r="5">
@@ -26522,46 +26522,46 @@
         <v>-1016321.423007003</v>
       </c>
       <c r="C6" t="n">
-        <v>312423.3227205896</v>
+        <v>312423.3227205894</v>
       </c>
       <c r="D6" t="n">
-        <v>312423.3227205894</v>
+        <v>312423.3227205897</v>
       </c>
       <c r="E6" t="n">
-        <v>64324.82506314927</v>
+        <v>64290.08713771269</v>
       </c>
       <c r="F6" t="n">
-        <v>389737.286870504</v>
+        <v>389702.5489450681</v>
       </c>
       <c r="G6" t="n">
-        <v>389737.2868705037</v>
+        <v>389702.548945068</v>
       </c>
       <c r="H6" t="n">
-        <v>389737.286870504</v>
+        <v>389702.5489450684</v>
       </c>
       <c r="I6" t="n">
-        <v>389737.2868705039</v>
+        <v>389702.5489450681</v>
       </c>
       <c r="J6" t="n">
-        <v>172206.0844732265</v>
+        <v>172171.3465477909</v>
       </c>
       <c r="K6" t="n">
-        <v>389737.286870504</v>
+        <v>389702.5489450681</v>
       </c>
       <c r="L6" t="n">
-        <v>389737.2868705038</v>
+        <v>389702.5489450683</v>
       </c>
       <c r="M6" t="n">
-        <v>304682.2589349921</v>
+        <v>304647.5210095564</v>
       </c>
       <c r="N6" t="n">
-        <v>389737.2868705037</v>
+        <v>389702.5489450681</v>
       </c>
       <c r="O6" t="n">
-        <v>389737.286870504</v>
+        <v>389702.5489450684</v>
       </c>
       <c r="P6" t="n">
-        <v>389737.2868705039</v>
+        <v>389702.5489450681</v>
       </c>
     </row>
   </sheetData>
@@ -26741,7 +26741,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="C4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022925</v>
-      </c>
-      <c r="C4" t="n">
-        <v>831.4014554022928</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022931</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26805,25 +26805,25 @@
         <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="K4" t="n">
         <v>1172.708288099648</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="N4" t="n">
         <v>1172.708288099648</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26960,20 +26960,20 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>278.1987997483757</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>4.547473508864641e-13</v>
       </c>
-      <c r="E3" t="n">
-        <v>278.198799748375</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
-      </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,13 +27018,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697355</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697355</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697355</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27382,13 +27382,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>108.448697386753</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>240.9947042380803</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,16 +27543,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27597,13 +27597,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>117.1605356911036</v>
       </c>
       <c r="Y4" t="n">
-        <v>187.6205372139425</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27616,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,7 +27625,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,10 +27670,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>256.7665117192696</v>
+        <v>28.66412060437324</v>
       </c>
     </row>
     <row r="6">
@@ -27777,16 +27777,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>84.44177583406672</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27828,16 +27828,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>112.2329384539338</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>117.3098506095609</v>
+        <v>253.1939736318737</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28020,16 +28020,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>164.1286311465811</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983806</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004729</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>34.70948605375773</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,7 +28074,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28096,7 +28096,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28263,7 +28263,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>-1.319714707885093e-12</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -28621,7 +28621,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -28779,7 +28779,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>1.885306725550132e-12</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -29478,7 +29478,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -29815,7 +29815,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="33">
@@ -29907,7 +29907,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>-1.508245380440106e-12</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -30171,7 +30171,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003813</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781692</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026421</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>301.6445156724557</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,31 +32075,31 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>508.374771698973</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32224,40 +32224,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
@@ -32266,7 +32266,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32312,25 +32312,25 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338201</v>
+        <v>616.5397119226047</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q18" t="n">
         <v>375.5996128485291</v>
@@ -32339,7 +32339,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796262</v>
@@ -32406,7 +32406,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32564,7 +32564,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>688.8020111197783</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214699</v>
@@ -32573,7 +32573,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32783,22 +32783,22 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>714.9328157424943</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437244</v>
@@ -32810,7 +32810,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -33020,16 +33020,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>194.5189324111248</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862122</v>
@@ -33038,7 +33038,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214699</v>
@@ -33047,7 +33047,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742439</v>
@@ -33193,7 +33193,7 @@
         <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159414</v>
       </c>
       <c r="O29" t="n">
         <v>926.5868626460029</v>
@@ -33257,13 +33257,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>249.1672590991327</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473073</v>
@@ -33272,19 +33272,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742439</v>
@@ -33494,13 +33494,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473073</v>
@@ -33512,13 +33512,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>653.3850396373771</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33679,7 +33679,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
         <v>125.3175546292901</v>
@@ -33737,7 +33737,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473073</v>
@@ -33749,16 +33749,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>454.8099857531869</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742439</v>
@@ -33901,7 +33901,7 @@
         <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175661</v>
       </c>
       <c r="N38" t="n">
         <v>981.2715114159428</v>
@@ -33968,22 +33968,22 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>399.9031616963281</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>613.2529048371025</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437244</v>
@@ -33995,7 +33995,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742439</v>
@@ -34208,7 +34208,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34217,22 +34217,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>452.8027404478649</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.267838362266</v>
+        <v>452.3405299254388</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34869,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554007</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923324</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129117</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882195</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193721</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037197</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222489</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359754</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306628</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789371</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>159.0482712280113</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>369.8203919190988</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902405</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394595</v>
+        <v>477.9853321427306</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625076</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
         <v>264.332588409635</v>
@@ -36051,7 +36051,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
         <v>373.2618997060455</v>
@@ -36212,7 +36212,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>546.2057666753338</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071396</v>
@@ -36221,7 +36221,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36431,22 +36431,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>572.7987818204761</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.48457599928</v>
@@ -36458,7 +36458,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,16 +36668,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>55.96455263125056</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,7 +36686,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071396</v>
@@ -36695,7 +36695,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36841,7 +36841,7 @@
         <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O29" t="n">
         <v>696.4886512243162</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>122.329632432466</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>500.3288951674331</v>
@@ -36920,19 +36920,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>500.3288951674331</v>
@@ -37160,13 +37160,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>510.7887951929326</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.3288951674331</v>
@@ -37397,16 +37397,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>320.8355783388566</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37467,7 +37467,7 @@
         <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191328</v>
       </c>
       <c r="M37" t="n">
         <v>426.2724270010452</v>
@@ -37549,7 +37549,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193518</v>
@@ -37616,22 +37616,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>261.348781916454</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>471.1188709150841</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>557.48457599928</v>
@@ -37643,7 +37643,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37865,22 +37865,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>310.2064960034205</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402477</v>
+        <v>310.2064960034205</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
